--- a/[1분반]2015136099_이연경_마이크로프로세서및실습_재료구매신청서.xlsx
+++ b/[1분반]2015136099_이연경_마이크로프로세서및실습_재료구매신청서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\대학원\조교\2016년 2학기\마이크로프로세서\stu\2015136099\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,14 @@
   </si>
   <si>
     <t>색 변경이 가능한 수면등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루투스가 Male이니까 Female도 혹시 모르니 추가 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기 핀이 알아서 납땜이 들어가는 게 아닐 수 있습니다. 이거 사용한 거 확인해주시고 사람들이 핀헤더 납땜할 경우 핀해더 추가 바랍니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,8 +175,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +195,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -243,15 +264,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,6 +285,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -270,17 +303,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -826,88 +857,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="122.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.08203125" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="122.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>2015136099</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -930,7 +962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -947,34 +979,37 @@
         <f>C7*D7</f>
         <v>21200</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
+    <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="10">
         <v>11000</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="9">
         <v>2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="9">
         <f t="shared" ref="E8:E12" si="0">C8*D8</f>
         <v>22000</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="83" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G8" s="9"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="83.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -991,41 +1026,44 @@
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
+    <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="10">
         <v>1760</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="9">
         <v>2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="9">
         <f t="shared" si="0"/>
         <v>3520</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G10" s="9"/>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>5500</v>
       </c>
       <c r="D11" s="2">
@@ -1035,19 +1073,19 @@
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="97" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="96.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>11000</v>
       </c>
       <c r="D12" s="2">
@@ -1057,12 +1095,12 @@
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
